--- a/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
+++ b/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8038C66F-9117-416F-9A6D-D3DF66BB19EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE08925-CDF6-4A01-826D-0929035C41B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>WebExcel</t>
   </si>
@@ -47,22 +47,6 @@
   </si>
   <si>
     <t>TabName</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
-WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
-WHERE demo.breed IN ['Akita']
-RETURN  
-    count(distinct p) AS Programs,
-    count(distinct s) AS Studies,
-    count(distinct c) AS Cases,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Case Files`,
-    count(distinct sf) AS `Study Files`</t>
   </si>
   <si>
     <t>TC01_INS_Filter_Doc-CCG_Neo4jData.xlsx</t>
@@ -88,21 +72,23 @@
     <t>ProjectsTab</t>
   </si>
   <si>
-    <t>MATCH (p:project)--&gt;(pgm:program)
-MATCH (ct:clinical_trial)--&gt;(p)
-MATCH (pub:publication)--&gt;(p)
-MATCH (geo)--&gt;(pub)
-MATCH (sra)--&gt;(pub)
- MATCH (dbgap)--&gt;(pub)
- MATCH (ct)--&gt;(pub)
- MATCH (pt:granted_patent)--&gt;(p)
-WITH DISTINCT p, pgm,ct, pub, geo, sra, dbgap, pt
-where p.lead_doc='CCG'
-RETURN
-    count(distinct p) AS Projects,
-    count(distinct pub) AS Publications,
-    count(distinct ct) AS `Clinical Trials`,
-    count(distinct pt) AS Patents</t>
+    <t>MATCH (p:program)&lt;--(pr:project)
+ where pr.lead_doc='CCG'
+OPTIONAL MATCH (pr)&lt;--(pub:publication)
+OPTIONAL MATCH (pr)&lt;--(:publication)&lt;--(dt)
+WHERE dt:geo OR dt:sra OR dt:dbgap
+OPTIONAL MATCH (ct:clinical_trial)
+WHERE EXISTS((ct)--&gt;(:publication)--&gt;(pr)) OR EXISTS((pr)&lt;--(ct))
+OPTIONAL MATCH (pr)&lt;--(pat)
+WHERE pat:granted_patent OR pat:patent_application
+WITH p, pr, pub, dt, ct, pat
+RETURN 
+COUNT(DISTINCT p.program_id)  AS Programs,
+COUNT(DISTINCT pr.project_id) as Projects,
+COUNT(DISTINCT pub.publication_id) as Publications,
+ COUNT(DISTINCT dt.accession) as Datasets,
+  COUNT(DISTINCT ct.clinical_trial_id) as `Clinical Trials`,
+COUNT(DISTINCT pat.patent_id) as Patents</t>
   </si>
 </sst>
 </file>
@@ -476,19 +462,19 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.453125" customWidth="1"/>
-    <col min="3" max="3" width="86.1796875" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
-    <col min="5" max="5" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -505,27 +491,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -540,7 +524,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
+++ b/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE08925-CDF6-4A01-826D-0929035C41B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B88CB6-0F15-4478-9301-BD6ECD4F1549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -55,20 +55,6 @@
     <t>TC01_INS_Filter_Doc-CCG_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (p:project)--&gt;(pgm:program)
-where p.lead_doc='CCG'
-WITH DISTINCT p, pgm
-RETURN
-coalesce(p.project_id, '') AS `Project ID`,
-coalesce (pgm.program_id, '')AS `Program`,
-coalesce(p.project_title, '') AS `Project Title`,
-coalesce(p.principal_investigators, '') AS `Principal Investigators`,
-coalesce(p.lead_doc, '')AS `Lead DOC`,
-coalesce(p.award_amount, '') AS `Award Amount`,
-coalesce(p.project_end_date, '') AS `Project End Date`,
-coalesce(p.fiscal_year,'')AS `Fiscal Year`</t>
-  </si>
-  <si>
     <t>ProjectsTab</t>
   </si>
   <si>
@@ -89,6 +75,22 @@
  COUNT(DISTINCT dt.accession) as Datasets,
   COUNT(DISTINCT ct.clinical_trial_id) as `Clinical Trials`,
 COUNT(DISTINCT pat.patent_id) as Patents</t>
+  </si>
+  <si>
+    <t>MATCH (p:project)--&gt;(pgm:program)
+where p.lead_doc='CCG'
+WITH DISTINCT p, pgm
+RETURN
+coalesce(p.project_id, '') AS `Project ID`,
+coalesce (pgm.program_id, '')AS `Program`,
+coalesce(p.project_title, '') AS `Project Title`,
+coalesce(p.principal_investigators, '') AS `Principal Investigators`,
+coalesce(p.principal_investigators, '') AS `Program Officers`,
+coalesce(p.lead_doc, '')AS `Lead DOC`,
+coalesce(p.lead_doc, '')AS `Activity Code`,
+coalesce(p.award_amount, '') AS `Award Amount`,
+coalesce(p.project_end_date, '') AS `Project End Date`,
+coalesce(p.fiscal_year,'')AS `Fiscal Year`</t>
   </si>
 </sst>
 </file>
@@ -462,7 +464,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,13 +495,13 @@
     </row>
     <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>

--- a/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
+++ b/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B88CB6-0F15-4478-9301-BD6ECD4F1549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECB423C-4A69-4614-B212-A63D173F36EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -87,8 +87,8 @@
 coalesce(p.principal_investigators, '') AS `Principal Investigators`,
 coalesce(p.principal_investigators, '') AS `Program Officers`,
 coalesce(p.lead_doc, '')AS `Lead DOC`,
-coalesce(p.lead_doc, '')AS `Activity Code`,
-coalesce(p.award_amount, '') AS `Award Amount`,
+SUBSTRING(p.project_id, 1, 3) AS `Activity code`,
+"$" + apoc.number.format(toInteger(p.award_amount)) AS `Award Amount`,
 coalesce(p.project_end_date, '') AS `Project End Date`,
 coalesce(p.fiscal_year,'')AS `Fiscal Year`</t>
   </si>
@@ -464,7 +464,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
+++ b/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECB423C-4A69-4614-B212-A63D173F36EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EF8206-187B-480D-B5C0-26F327E679C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 coalesce (pgm.program_id, '')AS `Program`,
 coalesce(p.project_title, '') AS `Project Title`,
 coalesce(p.principal_investigators, '') AS `Principal Investigators`,
-coalesce(p.principal_investigators, '') AS `Program Officers`,
+coalesce(p.program_officers, '') AS `Program Officers`,
 coalesce(p.lead_doc, '')AS `Lead DOC`,
 SUBSTRING(p.project_id, 1, 3) AS `Activity code`,
 "$" + apoc.number.format(toInteger(p.award_amount)) AS `Award Amount`,
@@ -464,7 +464,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
+++ b/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EF8206-187B-480D-B5C0-26F327E679C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F9B9F-E7BA-455C-90A6-26DE06CD7037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>WebExcel</t>
   </si>
@@ -77,20 +77,81 @@
 COUNT(DISTINCT pat.patent_id) as Patents</t>
   </si>
   <si>
-    <t>MATCH (p:project)--&gt;(pgm:program)
-where p.lead_doc='CCG'
-WITH DISTINCT p, pgm
+    <t>DatasetsTab</t>
+  </si>
+  <si>
+    <t>PublicationsTab</t>
+  </si>
+  <si>
+    <t>ClinicalTrialsTab</t>
+  </si>
+  <si>
+    <t>PatentsTab</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(pr:project)&lt;--(pub:publication)
+where pr.lead_doc='CCG'
+RETURN DISTINCT
+  pub.publication_id AS `PubMed ID`,
+COLLECT(DISTINCT pr.queried_project_id) AS `Project IDs`,
+pub.title AS Title,
+pub.authors AS Authors,
+pub.citation_count AS `Citation Count`,
+pub.relative_citation_ratio AS `Relative Citation Ratio`,
+pub.nih_percentile AS `NIH Percentile`</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(pr:project)&lt;--(pat)
+WHERE (pat:granted_patent OR pat:patent_application) and pr.lead_doc='CCG'
+RETURN DISTINCT
+ pat.patent_id AS `Patent ID`,
+COLLECT(DISTINCT pr.queried_project_id) AS `Project IDs`,
+pat.fulfilled_date AS `Fulfilled Date`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+OPTIONAL MATCH (p:program)&lt;--(pr:project)&lt;--()&lt;--(ct:clinical_trial)
+ WHERE   pr.lead_doc='CCG'
+RETURN DISTINCT
+ct.clinical_trial_id AS `Clinical Trial ID`,
+COLLECT(DISTINCT pr.queried_project_id) AS `Project IDs`,
+ct.title AS `Title`,
+ct.last_update_posted AS `Last Update Posted`,
+ ct.recruitment_status AS `Recruitment Status`</t>
+  </si>
+  <si>
+    <t>MATCH (pr:project)--&gt;(pgm:program)
+where pr.lead_doc='CCG'
+WITH DISTINCT pr, pgm
 RETURN
-coalesce(p.project_id, '') AS `Project ID`,
+coalesce(pr.project_id, '') AS `Project ID`,
 coalesce (pgm.program_id, '')AS `Program`,
-coalesce(p.project_title, '') AS `Project Title`,
-coalesce(p.principal_investigators, '') AS `Principal Investigators`,
-coalesce(p.program_officers, '') AS `Program Officers`,
-coalesce(p.lead_doc, '')AS `Lead DOC`,
-SUBSTRING(p.project_id, 1, 3) AS `Activity code`,
-"$" + apoc.number.format(toInteger(p.award_amount)) AS `Award Amount`,
-coalesce(p.project_end_date, '') AS `Project End Date`,
-coalesce(p.fiscal_year,'')AS `Fiscal Year`</t>
+coalesce(pr.project_title, '') AS `Project Title`,
+coalesce(pr.principal_investigators, '') AS `Principal Investigators`,
+coalesce(pr.program_officers, '') AS `Program Officers`,
+coalesce(pr.lead_doc, '')AS `Lead DOC`,
+SUBSTRING(pr.project_id, 1, 3) AS `Activity code`,
+"$" + apoc.number.format(toInteger(pr.award_amount)) AS `Award Amount`,
+coalesce(pr.project_end_date, '') AS `Project End Date`,
+coalesce(pr.fiscal_year,'')AS `Fiscal Year`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MATCH (dt)
+            WHERE (dt:geo OR dt:sra OR dt:dbgap)
+             MATCH (p:program)&lt;--(pr:project)&lt;--()&lt;--(dt)
+            RETURN DISTINCT
+          dt.accession AS Accession,
+          COALESCE (pr.queried_project_id,'') AS `Project IDs`,
+          CASE LABELS(dt)[0]
+              WHEN 'geo' THEN 'GEO'
+              WHEN 'sra' THEN 'SRA'
+              WHEN 'dbgap' THEN 'dbGaP' END AS Type,
+          COALESCE(dt.title, dt.study_title) AS Title,
+         COALESCE (dt.submission_date,'') AS `Submission Date`,
+          coalesce (dt.last_update_date,'') AS `Last Update Date`,
+          COALESCE (dt.release_date,'') AS `Release Date`,
+         COALESCE (dt.registration_date,'') AS `Registration Date`</t>
   </si>
 </sst>
 </file>
@@ -461,22 +522,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.42578125" customWidth="1"/>
     <col min="3" max="3" width="86.140625" customWidth="1"/>
     <col min="4" max="4" width="70.28515625" customWidth="1"/>
     <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -498,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -510,8 +571,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
+++ b/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F9B9F-E7BA-455C-90A6-26DE06CD7037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB01B972-010A-45E9-9B7B-78B68D392879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -524,20 +524,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.44140625" customWidth="1"/>
+    <col min="3" max="3" width="86.109375" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -571,7 +571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -588,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -605,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -652,7 +652,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
+++ b/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\May\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB01B972-010A-45E9-9B7B-78B68D392879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB18343E-4201-4629-BB8B-61F88B4762CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -120,22 +120,6 @@
  ct.recruitment_status AS `Recruitment Status`</t>
   </si>
   <si>
-    <t>MATCH (pr:project)--&gt;(pgm:program)
-where pr.lead_doc='CCG'
-WITH DISTINCT pr, pgm
-RETURN
-coalesce(pr.project_id, '') AS `Project ID`,
-coalesce (pgm.program_id, '')AS `Program`,
-coalesce(pr.project_title, '') AS `Project Title`,
-coalesce(pr.principal_investigators, '') AS `Principal Investigators`,
-coalesce(pr.program_officers, '') AS `Program Officers`,
-coalesce(pr.lead_doc, '')AS `Lead DOC`,
-SUBSTRING(pr.project_id, 1, 3) AS `Activity code`,
-"$" + apoc.number.format(toInteger(pr.award_amount)) AS `Award Amount`,
-coalesce(pr.project_end_date, '') AS `Project End Date`,
-coalesce(pr.fiscal_year,'')AS `Fiscal Year`</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 MATCH (dt)
             WHERE (dt:geo OR dt:sra OR dt:dbgap)
@@ -152,6 +136,23 @@
           coalesce (dt.last_update_date,'') AS `Last Update Date`,
           COALESCE (dt.release_date,'') AS `Release Date`,
          COALESCE (dt.registration_date,'') AS `Registration Date`</t>
+  </si>
+  <si>
+    <t>MATCH (pr:project)--&gt;(pgm:program)
+where pr.lead_doc='CCG'
+WITH DISTINCT pr, pgm
+RETURN
+coalesce(pr.project_id , '') AS `Grant ID`,
+coalesce(pr.queried_project_id, '') AS `Project ID`,
+coalesce (pgm.program_id, '')AS `Program`,
+coalesce(pr.project_title, '') AS `Project Title`,
+coalesce(pr.principal_investigators, '') AS `Principal Investigators`,
+coalesce(pr.program_officers, '') AS `Program Officers`,
+coalesce(pr.lead_doc, '')AS `Lead DOC`,
+SUBSTRING(pr.project_id, 1, 3) AS `Activity code`,
+"$" + apoc.number.format(toInteger(pr.award_amount)) AS `Award Amount`,
+coalesce(pr.project_end_date, '') AS `Project End Date`,
+coalesce(pr.fiscal_year,'')AS `Fiscal Year`</t>
   </si>
 </sst>
 </file>
@@ -524,20 +525,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.44140625" customWidth="1"/>
-    <col min="3" max="3" width="86.109375" customWidth="1"/>
-    <col min="4" max="4" width="70.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.453125" customWidth="1"/>
+    <col min="3" max="3" width="86.08984375" customWidth="1"/>
+    <col min="4" max="4" width="70.36328125" customWidth="1"/>
+    <col min="5" max="5" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -554,12 +555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -571,7 +572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -588,12 +589,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="261" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -605,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -622,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -652,7 +653,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
+++ b/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\May\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\CDS Automation\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB18343E-4201-4629-BB8B-61F88B4762CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C08376-648D-4A29-BCC7-D90519B0D1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -89,38 +89,41 @@
     <t>PatentsTab</t>
   </si>
   <si>
-    <t>MATCH (p:program)&lt;--(pr:project)&lt;--(pub:publication)
+    <t>MATCH (pr:project)--&gt;(pgm:program)
 where pr.lead_doc='CCG'
+WITH DISTINCT pr, pgm
+RETURN
+coalesce(pr.project_id , '') AS `Grant ID`,
+coalesce(pr.queried_project_id, '') AS `Project ID`,
+coalesce (pgm.program_id, '')AS `Program`,
+coalesce(pr.project_title, '') AS `Project Title`,
+coalesce(pr.principal_investigators, '') AS `Principal Investigators`,
+coalesce(pr.program_officers, '') AS `Program Officers`,
+coalesce(pr.lead_doc, '')AS `Lead DOC`,
+SUBSTRING(pr.project_id, 1, 3) AS `Activity code`,
+"$" + apoc.number.format(toInteger(pr.award_amount)) AS `Award Amount`,
+coalesce(pr.project_end_date, '') AS `Project End Date`,
+coalesce(pr.fiscal_year,'')AS `Fiscal Year`</t>
+  </si>
+  <si>
+    <t>MATCH (pr:project)&lt;--(:publication)&lt;--(dt)
+MATCH (pr2:project)&lt;--(:publication)&lt;--(dt)
+    WHERE (dt:geo OR dt:sra OR dt:dbgap) AND pr.lead_doc='CCG'
+WITH dt, COLLECT(DISTINCT pr.queried_project_id)+COLLECT(DISTINCT pr2.queried_project_id) AS prids
 RETURN DISTINCT
-  pub.publication_id AS `PubMed ID`,
-COLLECT(DISTINCT pr.queried_project_id) AS `Project IDs`,
-pub.title AS Title,
-pub.authors AS Authors,
-pub.citation_count AS `Citation Count`,
-pub.relative_citation_ratio AS `Relative Citation Ratio`,
-pub.nih_percentile AS `NIH Percentile`</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(pr:project)&lt;--(pat)
-WHERE (pat:granted_patent OR pat:patent_application) and pr.lead_doc='CCG'
-RETURN DISTINCT
- pat.patent_id AS `Patent ID`,
-COLLECT(DISTINCT pr.queried_project_id) AS `Project IDs`,
-pat.fulfilled_date AS `Fulfilled Date`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-OPTIONAL MATCH (p:program)&lt;--(pr:project)&lt;--()&lt;--(ct:clinical_trial)
- WHERE   pr.lead_doc='CCG'
-RETURN DISTINCT
-ct.clinical_trial_id AS `Clinical Trial ID`,
-COLLECT(DISTINCT pr.queried_project_id) AS `Project IDs`,
-ct.title AS `Title`,
-ct.last_update_posted AS `Last Update Posted`,
- ct.recruitment_status AS `Recruitment Status`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+    COALESCE(dt.accession,'') AS Accession,
+    apoc.text.join(apoc.coll.toSet(prids),", ") AS `Project IDs`,
+    CASE LABELS(dt)[0]
+        WHEN 'geo' THEN 'GEO'
+        WHEN 'sra' THEN 'SRA'
+        WHEN 'dbgap' THEN 'dbGaP'
+    END AS Type,
+    COALESCE(dt.title, dt.study_title,'') AS Title,
+    COALESCE(dt.submission_date,'') AS `Submission Date`,
+    COALESCE(dt.last_update_date,'') AS `Last Update Date`,
+    COALESCE(dt.release_date,'') AS `Release Date`,
+    COALESCE(dt.registration_date,'') AS `Registration Date`
+    order by Accession ASC
 MATCH (dt)
             WHERE (dt:geo OR dt:sra OR dt:dbgap)
              MATCH (p:program)&lt;--(pr:project)&lt;--()&lt;--(dt)
@@ -138,21 +141,50 @@
          COALESCE (dt.registration_date,'') AS `Registration Date`</t>
   </si>
   <si>
-    <t>MATCH (pr:project)--&gt;(pgm:program)
-where pr.lead_doc='CCG'
-WITH DISTINCT pr, pgm
-RETURN
-coalesce(pr.project_id , '') AS `Grant ID`,
-coalesce(pr.queried_project_id, '') AS `Project ID`,
-coalesce (pgm.program_id, '')AS `Program`,
-coalesce(pr.project_title, '') AS `Project Title`,
-coalesce(pr.principal_investigators, '') AS `Principal Investigators`,
-coalesce(pr.program_officers, '') AS `Program Officers`,
-coalesce(pr.lead_doc, '')AS `Lead DOC`,
-SUBSTRING(pr.project_id, 1, 3) AS `Activity code`,
-"$" + apoc.number.format(toInteger(pr.award_amount)) AS `Award Amount`,
-coalesce(pr.project_end_date, '') AS `Project End Date`,
-coalesce(pr.fiscal_year,'')AS `Fiscal Year`</t>
+    <t>MATCH (pr:project)&lt;--(pub:publication)
+MATCH (pr2:project)&lt;--(pub:publication)
+    WHERE pr.lead_doc='CCG'
+WITH pub, COLLECT(DISTINCT pr.queried_project_id)+COLLECT(DISTINCT pr2.queried_project_id) AS prids
+RETURN DISTINCT
+    COALESCE(pub.publication_id,'') AS `PubMed ID`,
+    apoc.text.join(apoc.coll.toSet(prids),", ") AS `Project IDs`,
+    pub.title AS Title,
+    pub.authors AS Authors,
+    pub.citation_count AS `Citation Count`,
+    pub.relative_citation_ratio AS `Relative Citation Ratio`,
+    pub.publish_date AS `Publication Date`
+order by `PubMed ID` ASC</t>
+  </si>
+  <si>
+    <t>MATCH (pr:project)&lt;--(pat)
+MATCH (pr2:project)&lt;--(pat)
+    WHERE (pat:granted_patent OR pat:patent_application) AND pr.lead_doc='CCG'
+WITH pat, COLLECT(DISTINCT pr.queried_project_id)+COLLECT(DISTINCT pr2.queried_project_id) AS prids
+RETURN DISTINCT
+    COALESCE(pat.patent_id,'') AS `Patent ID`,
+    apoc.text.join(apoc.coll.toSet(prids),", ") AS `Project IDs`,
+    pat.fulfilled_date AS `Fulfilled Date`
+order by `Patent ID` ASC</t>
+  </si>
+  <si>
+    <t>MATCH (pr:project)&lt;--(:publication)&lt;--(dt)
+MATCH (pr2:project)&lt;--(:publication)&lt;--(dt)
+    WHERE (dt:geo OR dt:sra OR dt:dbgap) AND pr.lead_doc='CCG'
+WITH dt, COLLECT(DISTINCT pr.queried_project_id)+COLLECT(DISTINCT pr2.queried_project_id) AS prids
+RETURN DISTINCT
+    COALESCE(dt.accession,'') AS Accession,
+    apoc.text.join(apoc.coll.toSet(prids),", ") AS `Project IDs`,
+    CASE LABELS(dt)[0]
+        WHEN 'geo' THEN 'GEO'
+        WHEN 'sra' THEN 'SRA'
+        WHEN 'dbgap' THEN 'dbGaP'
+    END AS Type,
+    COALESCE(dt.title, dt.study_title,'') AS Title,
+    COALESCE(dt.submission_date,'') AS `Submission Date`,
+    COALESCE(dt.last_update_date,'') AS `Last Update Date`,
+    COALESCE(dt.release_date,'') AS `Release Date`,
+    COALESCE(dt.registration_date,'') AS `Registration Date`
+    order by Accession ASC</t>
   </si>
 </sst>
 </file>
@@ -525,20 +557,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.453125" customWidth="1"/>
-    <col min="3" max="3" width="86.08984375" customWidth="1"/>
-    <col min="4" max="4" width="70.36328125" customWidth="1"/>
-    <col min="5" max="5" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -555,12 +587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -572,12 +604,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -589,12 +621,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -606,12 +638,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -623,12 +655,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -653,7 +685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
+++ b/InputFiles/TC01_INS_Filter_Doc-CCG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\CDS Automation\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation Latest\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C08376-648D-4A29-BCC7-D90519B0D1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B3BD8E-4659-4E14-AC30-86990DF64B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -53,28 +53,6 @@
   </si>
   <si>
     <t>TC01_INS_Filter_Doc-CCG_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>ProjectsTab</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(pr:project)
- where pr.lead_doc='CCG'
-OPTIONAL MATCH (pr)&lt;--(pub:publication)
-OPTIONAL MATCH (pr)&lt;--(:publication)&lt;--(dt)
-WHERE dt:geo OR dt:sra OR dt:dbgap
-OPTIONAL MATCH (ct:clinical_trial)
-WHERE EXISTS((ct)--&gt;(:publication)--&gt;(pr)) OR EXISTS((pr)&lt;--(ct))
-OPTIONAL MATCH (pr)&lt;--(pat)
-WHERE pat:granted_patent OR pat:patent_application
-WITH p, pr, pub, dt, ct, pat
-RETURN 
-COUNT(DISTINCT p.program_id)  AS Programs,
-COUNT(DISTINCT pr.project_id) as Projects,
-COUNT(DISTINCT pub.publication_id) as Publications,
- COUNT(DISTINCT dt.accession) as Datasets,
-  COUNT(DISTINCT ct.clinical_trial_id) as `Clinical Trials`,
-COUNT(DISTINCT pat.patent_id) as Patents</t>
   </si>
   <si>
     <t>DatasetsTab</t>
@@ -185,6 +163,29 @@
     COALESCE(dt.release_date,'') AS `Release Date`,
     COALESCE(dt.registration_date,'') AS `Registration Date`
     order by Accession ASC</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(pr:project)
+where pr.lead_doc='CCG'
+OPTIONAL MATCH (pr)&lt;--(pub:publication)
+OPTIONAL MATCH (ct:clinical_trial)
+WHERE EXISTS((pr)&lt;--(pub)&lt;--(ct)) OR EXISTS((pr)&lt;--(ct))
+OPTIONAL MATCH (pr)&lt;--(pat)
+WHERE pat:patent_application OR pat:granted_patent
+OPTIONAL MATCH (pr)&lt;-[*1..2]-(dt)
+WHERE dt:sra OR dt:dbgap OR dt:geo
+WITH p, pr, pub, ct, pat, dt
+RETURN
+COUNT(DISTINCT p.program_id) AS Programs,
+COUNT(DISTINCT pr.queried_project_id) AS Projects,
+COUNT(DISTINCT pr.project_id) AS Grants,
+COUNT(DISTINCT pub.publication_id) AS Publications,
+COUNT(DISTINCT dt.accession) AS Datasets,
+COUNT(DISTINCT ct.clinical_trial_id) AS `Clinical Trials`,
+COUNT(DISTINCT pat.patent_id) AS Patents</t>
+  </si>
+  <si>
+    <t>GrantsTab</t>
   </si>
 </sst>
 </file>
@@ -557,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,15 +588,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -606,13 +607,13 @@
     </row>
     <row r="3" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -623,13 +624,13 @@
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -640,13 +641,13 @@
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -657,13 +658,13 @@
     </row>
     <row r="6" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
